--- a/aeri2016_data_reconciled.xlsx
+++ b/aeri2016_data_reconciled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E6D349-BAD7-4931-80B1-1CA5A4A26E65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEDC1D-5021-46A0-99C6-6AD9C7926B27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4596" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="361">
   <si>
     <t>ID Number</t>
   </si>
@@ -63,9 +58,6 @@
     <t>Plenary</t>
   </si>
   <si>
-    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf</t>
-  </si>
-  <si>
     <t>Introducing Critical Archival Studies</t>
   </si>
   <si>
@@ -532,9 +524,6 @@
   </si>
   <si>
     <t>https://www.kent.edu/aeri2016/poster-abstracts</t>
-  </si>
-  <si>
-    <t>Eric Ketelaar  noted that a common past is what gives continuity, cohesion and coherence to a community, and the records which support a community’s collective memory are a vital part of maintaining links with that common past. My research involves the participation of a community to which I belong, the Auckland University Tramping Club (AUTC), as well as the archival practice and academic communities, to investigate how a community with distributed archives can maintain control of the records of its collective memory, in order to better understand how archival description can support community needs. The AUTC is a club that has a constantly-renewing membership, as people are only at University for a few years, and yet the club culture has been sustained for more than 80 years, modifying over time with societal changes, and yet with a stable core. After collaborative analysis of interviews and discussions, themes have been identified and the Tramping Club community and I have developed a model of the way the community uses records in maintaining its multiple, intersecting collective memories. This poster will illustrate that model.</t>
   </si>
   <si>
     <t>Caroline Crowell</t>
@@ -673,9 +662,6 @@
     <t>University of North Carolina</t>
   </si>
   <si>
-    <t>[CRADLE Project (Data Management MOOC)]</t>
-  </si>
-  <si>
     <t>This poster will discuss the Research Data Management MOOC (Massively Open Online Course), a product of the CRADLE project-- (cradle.web.unc.edu) – and the University of Edinburgh’s MANTRA (Research Data Management Training; datalib.edina.ac.uk/mantra) program. CRADLE is an IMLS (Institute of Museum and Library Services)-funded project undertaken by the School of Information and Library Science and the Odum Institute at the University of North Carolina at Chapel Hill. CRADLE is partnering with MANTRA to produce a MOOC that is relevant to librarians, archivists, and other information professionals tasked with research data management as well as to researchers themselves. This is the first international MOOC on data management and curation. By the time of the AERI 2016 conference we will be able to report on our experience delivering this MOOC several times to an international audience that includes both information professionals and researchers. We will have four months of data to analyze regarding demographic characteristics of the participants, use of the five modules, forum participation, and queries from the participants. We also hope to be able to discuss supplementary data sets and exercises.</t>
   </si>
   <si>
@@ -704,12 +690,6 @@
   </si>
   <si>
     <t xml:space="preserve">Preparing for Academic Careers Involving Research, Teaching, Mentoring, and Administration </t>
-  </si>
-  <si>
-    <t>Archival practice in the Arab sectors of the Middle East and North Africa (MENA), and the scholarship that seeks to study it, must grapple with the dual challenge of, on the one hand, thinking critically about the transmission of western paradigms, methods and goals while adapting the insights and knowledge of a tradition most often associated with the west; and of combating the orientalist tendency to essentialize the cultures and societies as timeless and monolithic, on the other hand (Mejcher-Atassi &amp;amp; Schwartz 2012, 1). In this context, and against a regional background of increased and diversified collecting practices, heightened contestation over the past, and large-scale material heritage destruction, my research paper interrogates various Lebanese archival sites and initiatives in light of modern Arab history. I begin by exploring the increasing relevance and political province of narratives of (neo)colonial and postcolonial violence in Lebanon and across the Middle East and North Africa (MENA). While making connections between ongoing conflict and the oft-noted archival deficiencies facing the MENA, I outline the necessity, rationale and context of a research agenda that seeks to fill the gaps in our knowledge of archives in Arab settings while critically questioning what archives in Lebanon exhibit, what purposes and audiences they serve, and, most crucially, what narratives they engender. This line of questioning allows me to probe what archives mean in a region where the most pressing need to collect and recover lies not only in the professional and academic fields concerned with preserving and organizing heritage, but perhaps more so in attempts at objectifying and sustaining a presence for those people, places and objects lost, destroyed or erased by past and ongoing violence (see Shabout 2012 for relevant discussion).
-Works Cited:
-Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.). (2012) Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.
-Shabout, Nada. (2012). Collecting modern Iraqi art. In Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.), Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.</t>
   </si>
   <si>
     <t xml:space="preserve">Archival bodies take shape, and reciprocally shape the records creators who engage with the archives, through records, collections, practices, and productions. Utilizing the body as a framework to explore archives and their productions as always-in-motion, flexible, and dynamic, I interrogate the archival body through concepts of ethos and ethics. Beginning with an understanding of ethos as “an atmosphere, climate, disposition, and essence,” I move to make a connection to ethics that draws from political theorist Jane Bennett’s definition of ethics as “a complex set of relays between moral contents, aesthetic-affective styles, and public moods” (2010, p. xii). In this presentation, I question the climates in which hands-on practices might offer proposed archival ethos and ethics that are attentive to diverse, dynamic, and distinct bodies and bodies of knowledge to consider multiple histories, lived contexts, and meaning-making practices throughout archival productions. 
@@ -804,9 +784,6 @@
     <t>Joel Blanco-Rivera</t>
   </si>
   <si>
-    <t>Edward Summers</t>
-  </si>
-  <si>
     <t>Heather Soyka</t>
   </si>
   <si>
@@ -822,9 +799,6 @@
     <t>Brian Real</t>
   </si>
   <si>
-    <t>Vladan Vuklis</t>
-  </si>
-  <si>
     <t>Winter Rae Schneider</t>
   </si>
   <si>
@@ -978,9 +952,6 @@
     <t>University of California Los Angeles; University of California Los Angeles</t>
   </si>
   <si>
-    <t>University of Maryland</t>
-  </si>
-  <si>
     <t>DataONE</t>
   </si>
   <si>
@@ -999,9 +970,6 @@
     <t>University of Maribor and National Archives of the Republic of Slovenia</t>
   </si>
   <si>
-    <t>University of Maryland; Wayne State University</t>
-  </si>
-  <si>
     <t>University of Banjaluka</t>
   </si>
   <si>
@@ -1038,22 +1006,13 @@
     <t xml:space="preserve">Exhibiting Evidence: Using the Archive to Make Sense of Difficult Topics </t>
   </si>
   <si>
-    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://www.kent.edu/aeri2016/plenary-speakers</t>
-  </si>
-  <si>
     <t>ARK Research: The State of the Art</t>
   </si>
   <si>
     <t>This paper will report on the state of the art of archival and recordkeeping research in the English‐speaking world. It will present a thematic analysis of ARK research over the past 10 years, update previous analyses by Gilliland and McKemmish of the methodologies and methods being used in ARK research, and identify emergent areas. It will discuss research trends with reference to the grand societal and archival challenges identified as part of the related AERI initiative, and the construct of the archival multiverse.</t>
   </si>
   <si>
-    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://www.kent.edu/aeri2016/paper-presentation-abstracts</t>
-  </si>
-  <si>
     <t xml:space="preserve">It is an exciting time to be an archival researcher, educator and practitioner as we open ourselves up to the archival turn, with a plurality of memory texts and diversity of ways in which archives are formed, managed, used and sustained. Gaining rich understandings of the ways in which communities constitute, create and interact with archives is also challenging traditional approaches that force demarcations between researcher and researched, teacher and students, archivist and end user. In this workshop we explore methodologies for inclusive design using records continuum thinking as a tool for sense making. We will look at ways in which relationships with communities are developed, nurtured and sustained using ethical principles that embrace rights, recognition, respect, and reciprocity. This is a hands on workshop, so please do not bring laptops. </t>
-  </si>
-  <si>
-    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://www.kent.edu/aeri2016/workshops</t>
   </si>
   <si>
     <t>This interactive and participatory workshop is designed to explore and discuss what it means to craft and communicate an academic identity at various stages of the tenure track process. The 90-minute workshop will cover key problems and issues in developing and articulating research agendas and teaching philosophies as impact statements. The workshop will also include peer review and discussion.
@@ -1136,6 +1095,57 @@
   </si>
   <si>
     <t>[No presentation title in program.]</t>
+  </si>
+  <si>
+    <t>Elsie Doolan</t>
+  </si>
+  <si>
+    <t>Weaving in New Narratives: Textiles as Records of Conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 1970s, Chilean women began creating textiles known as arpilleras (from the Spanish word for burlap) as a way of documenting their lives and experiences. Under the Pinochet regime (1973-1990), arpilleras depicting the difficult, often violent, experiences of Chilean women began to gain global recognition. Through an internship with the Tower Museum archives in Derry~Londonderry in Northern Ireland, I worked with a collection of arpilleras that had been donated by Roberta Bacic, a Chilean lecturer currently living in Northern Ireland, who has focused her research on arpilleras. Considered by some to be both museum artifacts and archival records, these textile works challenge classical professional distinctions drawn between the two categories. Situating their dual categorizations within a combined museum and archival setting exposes the ways in which traditional definitions of archival records may not only exclude women's voices, but also fail to consider how gendered activities and expressions might play a role in records’ formation and reception. Arpilleras have been adopted in a variety of countries as a medium through which women are able to express their own personal experiences with conflict autonomously. Thus, there is a greater imperative that archivists work to create a more inclusive archival record. </t>
+  </si>
+  <si>
+    <t>https://www.kent.edu/aeri2016/paper-presentation-abstracts. This presentation does not appear in the pdf program located at https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf and https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf.</t>
+  </si>
+  <si>
+    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/plenary-speakers</t>
+  </si>
+  <si>
+    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/paper-presentation-abstracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  </t>
+  </si>
+  <si>
+    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/workshops</t>
+  </si>
+  <si>
+    <t>Bergis Jules; Edward Summers</t>
+  </si>
+  <si>
+    <t>University of Maryland and Wayne State University</t>
+  </si>
+  <si>
+    <t>Vladan Vukliš</t>
+  </si>
+  <si>
+    <t>Archival practice in the Arab sectors of the Middle East and North Africa (MENA), and the scholarship that seeks to study it, must grapple with the dual challenge of, on the one hand, thinking critically about the transmission of western paradigms, methods and goals while adapting the insights and knowledge of a tradition most often associated with the west; and of combating the orientalist tendency to essentialize the cultures and societies as timeless and monolithic, on the other hand (Mejcher-Atassi &amp;amp; Schwartz 2012, 1). In this context, and against a regional background of increased and diversified collecting practices, heightened contestation over the past, and large-scale material heritage destruction, my research paper interrogates various Lebanese archival sites and initiatives in light of modern Arab history. I begin by exploring the increasing relevance and political province of narratives of (neo)colonial and postcolonial violence in Lebanon and across the Middle East and North Africa (MENA). While making connections between ongoing conflict and the oft-noted archival deficiencies facing the MENA, I outline the necessity, rationale and context of a research agenda that seeks to fill the gaps in our knowledge of archives in Arab settings while critically questioning what archives in Lebanon exhibit, what purposes and audiences they serve, and, most crucially, what narratives they engender. This line of questioning allows me to probe what archives mean in a region where the most pressing need to collect and recover lies not only in the professional and academic fields concerned with preserving and organizing heritage, but perhaps more so in attempts at objectifying and sustaining a presence for those people, places and objects lost, destroyed or erased by past and ongoing violence (see Shabout 2012 for relevant discussion).
+Works Cited:
+Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.). (2012) Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.
+Shabout, Nada. (2012). Collecting modern Iraqi art. In Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.), Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.</t>
+  </si>
+  <si>
+    <t>University of Michigan; Kent State University</t>
+  </si>
+  <si>
+    <t>Eric Ketelaar noted that a common past is what gives continuity, cohesion and coherence to a community, and the records which support a community’s collective memory are a vital part of maintaining links with that common past. My research involves the participation of a community to which I belong, the Auckland University Tramping Club (AUTC), as well as the archival practice and academic communities, to investigate how a community with distributed archives can maintain control of the records of its collective memory, in order to better understand how archival description can support community needs. The AUTC is a club that has a constantly-renewing membership, as people are only at University for a few years, and yet the club culture has been sustained for more than 80 years, modifying over time with societal changes, and yet with a stable core. After collaborative analysis of interviews and discussions, themes have been identified and the Tramping Club community and I have developed a model of the way the community uses records in maintaining its multiple, intersecting collective memories. This poster will illustrate that model.</t>
+  </si>
+  <si>
+    <t>CRADLE Project (Data Management MOOC)</t>
+  </si>
+  <si>
+    <t>[No institution in program]; University of Maryland</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1261,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1267,6 +1277,36 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1628,11 +1668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1673,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2016001</v>
       </c>
@@ -1681,16 +1721,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -1698,95 +1738,95 @@
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="I2" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="156" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2016002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="156" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2016003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2016004</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>313</v>
+      <c r="B5" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="390" x14ac:dyDescent="0.3">
@@ -1794,28 +1834,28 @@
         <v>2016005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1823,28 +1863,28 @@
         <v>2016006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1852,28 +1892,28 @@
         <v>2016007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1881,28 +1921,28 @@
         <v>2016008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
@@ -1910,115 +1950,115 @@
         <v>2016009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2016010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2016011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2016012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>338</v>
+        <v>166</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
@@ -2026,28 +2066,28 @@
         <v>2016013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2055,28 +2095,28 @@
         <v>2016014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2084,28 +2124,28 @@
         <v>2016015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2113,28 +2153,28 @@
         <v>2016016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2142,28 +2182,28 @@
         <v>2016017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2171,77 +2211,77 @@
         <v>2016018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="156" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2016019</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="156" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2016020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>11</v>
@@ -2249,8 +2289,8 @@
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>333</v>
+      <c r="I21" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -2258,29 +2298,29 @@
       <c r="A22" s="2">
         <v>2016021</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>261</v>
+      <c r="B22" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2288,28 +2328,28 @@
         <v>2016022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2317,28 +2357,28 @@
         <v>2016023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>224</v>
+        <v>57</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2346,28 +2386,28 @@
         <v>2016024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2375,28 +2415,28 @@
         <v>2016025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2404,28 +2444,28 @@
         <v>2016026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2433,28 +2473,28 @@
         <v>2016027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2462,28 +2502,28 @@
         <v>2016028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2491,28 +2531,28 @@
         <v>2016029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="405.6" x14ac:dyDescent="0.3">
@@ -2520,28 +2560,28 @@
         <v>2016030</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>338</v>
+        <v>166</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -2549,28 +2589,28 @@
         <v>2016031</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
@@ -2578,28 +2618,28 @@
         <v>2016032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -2607,28 +2647,28 @@
         <v>2016033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="390" x14ac:dyDescent="0.3">
@@ -2636,28 +2676,28 @@
         <v>2016034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2665,28 +2705,28 @@
         <v>2016035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G36" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2694,28 +2734,28 @@
         <v>2016036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G37" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2723,28 +2763,28 @@
         <v>2016037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="G38" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2752,28 +2792,28 @@
         <v>2016038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2781,28 +2821,28 @@
         <v>2016039</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2810,28 +2850,28 @@
         <v>2016040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G41" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2839,28 +2879,28 @@
         <v>2016041</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G42" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2868,28 +2908,28 @@
         <v>2016042</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G43" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
@@ -2897,28 +2937,28 @@
         <v>2016043</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G44" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
@@ -2926,28 +2966,28 @@
         <v>2016044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="G45" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
@@ -2955,28 +2995,28 @@
         <v>2016045</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2984,28 +3024,28 @@
         <v>2016046</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G47" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3013,28 +3053,28 @@
         <v>2016047</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G48" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3042,28 +3082,28 @@
         <v>2016048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3071,28 +3111,28 @@
         <v>2016049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>338</v>
+        <v>166</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3100,28 +3140,28 @@
         <v>2016050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>338</v>
+        <v>166</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3129,28 +3169,28 @@
         <v>2016051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>338</v>
+        <v>166</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3158,57 +3198,57 @@
         <v>2016052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2016053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>12</v>
+      <c r="I54" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3216,28 +3256,28 @@
         <v>2016054</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="G55" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3245,28 +3285,28 @@
         <v>2016055</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G56" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -3274,28 +3314,28 @@
         <v>2016056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3303,28 +3343,28 @@
         <v>2016057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3332,28 +3372,28 @@
         <v>2016058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G59" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3361,28 +3401,28 @@
         <v>2016059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="G60" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3390,28 +3430,28 @@
         <v>2016060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G61" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3419,28 +3459,28 @@
         <v>2016061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="G62" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3448,28 +3488,28 @@
         <v>2016062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="G63" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="312" x14ac:dyDescent="0.3">
@@ -3477,28 +3517,28 @@
         <v>2016063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G64" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3506,28 +3546,28 @@
         <v>2016064</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="G65" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3535,28 +3575,28 @@
         <v>2016065</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="G66" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="312" x14ac:dyDescent="0.3">
@@ -3564,28 +3604,28 @@
         <v>2016066</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="G67" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3593,28 +3633,28 @@
         <v>2016067</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="G68" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3622,28 +3662,28 @@
         <v>2016068</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="G69" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3651,28 +3691,28 @@
         <v>2016069</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="G70" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3680,28 +3720,28 @@
         <v>2016070</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="G71" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -3709,28 +3749,28 @@
         <v>2016071</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="G72" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -3738,48 +3778,48 @@
         <v>2016072</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="G73" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>2016073</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>11</v>
@@ -3787,8 +3827,8 @@
       <c r="H74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>12</v>
+      <c r="I74" s="10" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -3796,28 +3836,28 @@
         <v>2016074</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="H75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3825,28 +3865,28 @@
         <v>2016075</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="F76" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="G76" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3854,28 +3894,28 @@
         <v>2016076</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="G77" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I77" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
@@ -3883,28 +3923,28 @@
         <v>2016077</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="G78" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3912,28 +3952,28 @@
         <v>2016078</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="G79" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I79" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3941,28 +3981,28 @@
         <v>2016079</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G80" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H80" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I80" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3970,28 +4010,28 @@
         <v>2016080</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="G81" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H81" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -3999,28 +4039,28 @@
         <v>2016081</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="G82" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I82" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4028,28 +4068,28 @@
         <v>2016082</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="G83" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I83" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4057,28 +4097,28 @@
         <v>2016083</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="G84" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I84" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -4086,28 +4126,28 @@
         <v>2016084</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4115,28 +4155,28 @@
         <v>2016085</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H86" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
@@ -4144,28 +4184,28 @@
         <v>2016086</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I87" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
@@ -4173,28 +4213,28 @@
         <v>2016087</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H88" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4202,37 +4242,61 @@
         <v>2016088</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H89" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I89" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>168</v>
+    </row>
+    <row r="90" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>2016089</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/aeri2016_data_reconciled.xlsx
+++ b/aeri2016_data_reconciled.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEDC1D-5021-46A0-99C6-6AD9C7926B27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B91BCEB-0C12-7242-BEA1-05DCAEADB3F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4596" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="22120" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$90</definedName>
+  </definedNames>
   <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="362">
   <si>
     <t>ID Number</t>
   </si>
@@ -106,9 +114,6 @@
     <t>Records Literacy</t>
   </si>
   <si>
-    <t xml:space="preserve">From the late twentieth century onwards, a defining feature of the information and library science (ILS) domain has been its concern with information literacy.  The resulting body of literature is vast, and there are many examples of implementations of research into practice, as evidenced by the involvement of professional bodies and the development of standards and guidelines. However, consideration of the power of records and recordkeeping in everyday lives is a perspective that is largely missing from information literacy research and practice.  This absence of awareness means that existing conceptions of information literacy developed by the ILS community do not adequately reflect issues relating to everyday records and recordkeeping. Contributions to information literacy from the archival science discipline have focused largely on archival or primary source literacy, often in terms of user education (for instance, how to navigate access to archival institutions and collections). Records literacy, addressing the challenges inherent in interacting with everyday records and records systems has not been addressed, other than from a training perspective targeted at specific workplace requirements. As records are influential at all levels of human existence, the consequences of not addressing records literacy, particularly for the least empowered individuals in society (such as refugees), can be profound. Issues of professional identify and culture are likely to have influenced the lack of awareness of the need for records literacy in everyday life, in particular the division of responsibilities for recordkeeping to records managers and archivists. The purpose of this paper is to raise awareness of the need for records literacy and to call  for a research and practice agenda to introduce and embed awareness of records and recordkeeping in information literacy. </t>
-  </si>
-  <si>
     <t>Accessing Archives: Teaching with Primary Sources in K-12 Classrooms</t>
   </si>
   <si>
@@ -151,9 +156,6 @@
     <t>Recordkeeping Culture in Federal Agencies of Australia and Canada</t>
   </si>
   <si>
-    <t>Australia and Canada have contributed strongly to the discussion and adoption of records continuum thinking and practice.  In 1985 Archivaria published Atherton’s[Field] seminal work From Life Cycle to Continuum - some thoughts on the records management-archives relationship.  This was the earliest published effort that espoused and consolidated continuum thinking. Not long afterwards continuum thinking and the Records Continuum Model, developed by Frank Upward, was taken up in and evolved in Australia.  The Australian recordkeeping community issued a records management standard based on continuum thinking. Both nations have adopted a records continuum view in developing their national recordkeeping framework, but Bak (2010) notes that there are important differences in the two views of the continuum developed on either side of the Pacific.  He contends that the Canadian view, as espoused by Atherton (1985), privileges service or what he later calls utility whereas the Australian view has a tendency to privilege issues of authenticity and evidential value.  Canadian archives scholars have a different perspective, and MaNeil (2011) argues that the professional identity of archivists and records management professionals has centered on authenticity and trust. Is Bak accurate in stating that “the difference between Australian and Canadian views of the continuum have been carried over to differences in the recordkeeping cultures of the two nations”? This paper draws on interviews with records managers in both Australian and Canadian federal government agencies to explore this notion that the views of the continuum have affected the recordkeeping cultures of the two nations and to see whether there is indeed an underlying universal professional recordkeeping culture that prevails regardless of national frameworks.</t>
-  </si>
-  <si>
     <t>Film Studies and the Archival Turn (Re-Shaping a Discipline)</t>
   </si>
   <si>
@@ -169,9 +171,6 @@
     <t xml:space="preserve">Recently, standards for Trustworthy Digital Repositories (TDRs) have emerged within the digital curation community. While it is  generally accepted that standards can improve a wide variety of products and services, to date few digital repositories have  undergone audit and certification. One possible explanation for this could be that digital repository staff members do not perceive  high enough value in undergoing audit and certification to pursue these activities. This research presentation presents findings of a study aimed at understanding the value of audit and certification of digital repositories from the perspective of actual digital  repository staff members. Participants in the study include staff members of digital repositories that have acquired Data Seals of Approval (DSA)and/or become members of the International Council for Science (ICSU) World Data System (WDS). Findings suggest that  participants perceived high value in undergoing audit and certification; they articulated the value of undergoing audit and certification in terms of improving their systems and services, better understanding their systems and services, and making positive impressions on various classes of stakeholders of their repositories, including funders, depositors, and end users or consumers of digital repository content. Implications of the findings for digital repository managers are discussed.    </t>
   </si>
   <si>
-    <t xml:space="preserve">Risk Perception and Trustworthy Digital Repository Certification. </t>
-  </si>
-  <si>
     <t>Digital preservation is about ensuring the sustainability and longevity of digital information (Atkins et al., 2003; Berman et al., 2010; Garrett &amp; Waters, 1996). In order to do this, repositories must be able to assess, mitigate, and manage risk (Clifton, 2005; Conway et al., 2012). In the past decade the number of digital repositories has grown but stakeholders still have no way to know whether these repositories can fulfill the promises that they make to curate, preserve, and provide access to data long term. In response, standards for trustworthy digital repositories such as ISO 16363: Trustworthy Repositories Audit and Certification (TRAC) have emerged to verify that repositories can meet these obligations. The TRAC standard depends upon the idea that in order to be trustworthy a repository must be able to demonstrate the ability to identify, assess, manage, and mitigate risk (Consultative Committee for Space Data Systems, 2012). In this research presentation I will discuss the theoretical foundations and research design for my dissertation. This qualitative study examines the implementation of the TRAC audit and certification process, an internationally-accepted standard for assessing the trustworthiness of digital repositories, through a theoretical framework based on theories of risk perception (e.g. Gardoni &amp; Murphy, 2013; Slovic, 1987; Vaughan, 1996; Wildavsky &amp; Dake, 1990). More specifically, I ask how risk is understood, managed, and addressed in digital repositories andamong auditors. My dissertation employs a qualitative design incorporating in-depth semi-structured interviews and document analysis. Data collection will be carried out across three stakeholder groups: repository leaders from TRAC-certified repositories, auditors who have conducted TRAC audits at those same repositories, and individuals who have been through PTAB training in order to become certified auditors for the TRAC standard (Consultative Committee for Space Data Systems, 2011; “PTAB Courses,” 2015). Document analysis will focus primarily on audit reports and the TRAC standard itself (e.g. Center for Research Libraries, 2014). This presentation will focus on the theoretical framework and research design and may include an update regarding data collection, if appropriate.</t>
   </si>
   <si>
@@ -184,15 +183,9 @@
     <t>Sue McKemmish</t>
   </si>
   <si>
-    <t>This ongoing research is based on a previous inquiry into the state of archival sources for social history of Yugoslav Socialism (1945–1990). An in-depth analysis of archival socialist heritage uncovered systematic issues regarding strategies and practices of appraisal that were designed within the previous system, and then automatically reapplied in a new, post-socialist environment. In the era of state socialism, where almost all spheres of social life – including government, economy, education, politics, non-government associations etc. – were “socially owned” and/or “socially controlled”, archival institutions were entrusted with overlooking the totality of records production. Appraisal of records, based on criteria of formal function and hierarchy, was operationalized through a “life cycle” model, where an essentially negative selection eliminated what was considered valueless. The bulk of material retained as potentially valuable, as it waited for acquisition and processing, was gradually accumulated into an increasing backlog. As no proactive appraisal strategies were yet devised, one can only speculate about possible responses to these challenges, because with the 1990s came unexpected extraordinary conditions. After a decade of political and social turmoil, Socialist Yugoslavia fell apart in a series of violent secession wars. Archival institutions were primarily concerned with surviving and adapting to new conditions, as well as with attempts – too often futile – to save the records that suddenly fell out of place. Two decades after these wars, however, it becomes apparent that the archival profession must also (re)engage in deeper issues. Post-socialist transition and deregulation severely reduced the archival framework. Private (and privatized) enterprises, the political parties, NGOs, the trade unions, and even the Judiciary, now all act independently when it comes to handling and disposition of their own records. Archival profession was reduced to a guardian of state papers, produced by government bodies and remaining public institutions. With the goal of reclaiming lost ground for the archives, envisioned to document the totality of social life, this research explores the possibilities for designing documentation strategies and for appropriation of proactive appraisal practices as well as modern records management systems that would enable these deeply needed changes.</t>
-  </si>
-  <si>
     <t>Archiving in the Aftermath of Societal Rupture</t>
   </si>
   <si>
-    <t>Documentation Strategy in the Desert of Post-Socialism:  Rethinking Appraisal in Former Yugoslavia</t>
-  </si>
-  <si>
     <t>To What Ends? Lebanese Archival Memory</t>
   </si>
   <si>
@@ -283,9 +276,6 @@
     <t>Poplar Trees, Paved Roads, and Pixels: Curating the Digital Afterlife</t>
   </si>
   <si>
-    <t xml:space="preserve">In 1951, Henrietta Lacks, a black woman, died of cervical cancer at Johns Hopkins Hospital. In what is now a widely discussed case of medical and racial ethics, Lacks’s cells were used, without permission or informed consent, to create an immortal commercial cell line (HeLa cells), the use of which continues in contemporary biomedicine. In 2013, researchers mapped Lacks’s DNA genome and published the code online. Lacks’s family argued that the published genome laid bare their most intimate health information, making it digitally available to the public and denying them the opportunity to craft their own narratives about their bodies, their heritage, their health, and their future selves. Four years after Lacks’s death, Emmett Till, a fourteen-year-old black child, was lynched in Mississippi. Till’s mutilated body was photographed at his funeral in 1955; in the sixty years since, dozens of images of a deceased Emmett Till have been published online, where they will remain in perpetuity. A history of lynching as photographic sport in the United States, viewed alongside the Lacks and Till cases, offers tangible examples of the commodification of black bodies—the use by others of black death for personal entertainment or gain. For Lacks, the HeLa commercial cell line and published genome remain as an indelible record. So, too, for Emmett Till and the hundreds of other lynching victims whose dead bodies remain, forever suspended, in a modern-day digital afterlife. The use of dead black bodies for political, social, financial, or cultural gain continues today. A Google image search for slain teen Trayvon Martin, for example, asks whether one would prefer to see his body in a casket, or on the ground. It follows, therefore, that current research on the commodification of black bodies has begun to focus on digital spaces. Using critical and historical methods, this research asks questions about the line between memorialization and commodification; black bodies as records and as evidence; and the interplay between the permanence of the digital sphere and international human rights concept of the “right to be forgotten.”                   </t>
-  </si>
-  <si>
     <t>Police Body Cameras and the Privitization of the Chain of Evidence</t>
   </si>
   <si>
@@ -380,9 +370,6 @@
   </si>
   <si>
     <t>Archiving the Ephemeral Experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 21st century archivists move out of the stacks and into increasingly dynamic and multicultural communities, we confront the issue of how to archive such communities’ events and lived histories. In response to a query from a campus museum to help archive an aerosol art performance/installation, I asked my students to consider how to archive an ephemeral event using one sense beyond audio and visual. As an example, I offered John Waters’ 1981 film Polyester, filmed in “Odorama” with scratch-n-sniff cards distributed at screenings. How do we describe, arrange, and conserve the sensory moment that is lived experience? On a theoretical level, I discussed phenomenology and presented some ideas from Gaston Bachelard’s The Poetics of Space. On a practical level, what’s an archivist to do? Janet Ceja’s work on videographers as digital scribes for local communities in Mexico (2015), Carmen Cowick’s work on street art (2015), and Anabel Quan-Haase and Kim Martin’s study (2013) of translation of actual to virtual provide some exemplars. Much of this work relies upon A/V media as a recording and preservation end in itself. The professional archival pedagogy literature is largely silent on archiving sense experience. Yet thinking outside the (Hollinger) box and digital capture has pedagogical value for rising archivists who will confront heretofore unexpected materials. Collecting and processing with a full complement of perceptual aspects also has profound implications for engaging with disability communities, as well. I propose to discuss the design and execution challenges to an assignment in archiving the ephemeral experience, be it fiesta, graffiti installation, community march, political protest. How do we capture what it feels like to be in the moment and conserve that for future researchers and generations. (What did Woodstock smell like? How do we reproduce the feeling on the ground at the “I Have A Dream Speech”? What is the taste of aerosol in the air when artists are tagging?) I’ll discuss how I framed the assignment, how the students responded, what worked and what didn’t, and propose and invite revisions for next time. This is very much a work in progress. I would welcome the conversation!    </t>
   </si>
   <si>
     <t xml:space="preserve">Television serials or soap operas based on certain characters or events or periods in history popularise history. Often based on extensive primary and secondary archival research, these serials offer an interpretation of a moment in history. They have the potential and power to establish a pseudo/historical discourse and might perpetuate, enhance, nuance or counter the pre-existing ‘historical’ readings of that moment. In spite of or because of their hold on popular imagination, these serials are at the centre of debates about commodification, trivialisation or even falsification of history. This paper will argue that, although archives play a central role in these debates, they are not merely the sites where these debates are performed but are active participants in the interplay between history, current politics and popular culture. Using the receptions of these soap operas as example, this paper will examine and analyse the ways in which hegemonic cultural expectations in a society, a particular moment in history as described in the historical records of the period and representations of that moment in popular culture interact with each other to create a layered narrative about the moment. </t>
@@ -683,9 +670,6 @@
     <t>The Haitian Revolution has been used as the key element in romantic narratives of slavery to freedom. It has also been used, more recently, as an iconic example of the empty promise of freedom for enslaved populations after emancipation, where Haiti’s early authoritarian, militarized and colorist governments form the basis of a historical trajectory to today’s “failed state.” As David Scott argues in Conscripts of Modernity (2004), these narratives fail to look closely and critically at the historical contexts, the “problem moments,” of the generations of Haitians who lived through the revolution and who built lives afterword. Very little attention, in particular, has been paid to historicizing the generation of Haitians born in the first decades after independence. What were their actions, if not motivations, as individuals and communities? The Haitian past has been and continues to be essentialized, both because of a presumed absence of archival sources, and also because of a presumably unfathomable disconnect between the documentation that does exist and the lived experiences a historically disenfranchised rural population. In this presentation I hope to address both of these arguments and the narratives they enable. Using new research in the private archives of notaries and early civil records in the city of Gonaives and the Artibonite Valley, I will focus on how to read the struggles of Haiti’s earliest generations after emancipation in 1803/1804. These documents, and this genre of record keeping, provide rich information on the legal rituals of Haiti’s so-called “peasantry,” and they also prompt further questions about the practice of legality, recordkeeping and state control in the new republic. How did Haitian notaries and mayors engage in their project of conforming the Haitian population to a legal practice that straddled colonial Saint Domingue and Restoration-era France? How can land sales, inheritance and succession transactions, birth, death and marriage registers be used to reread the historical context of Haitian freedom? Through looking at these genres of new primary source documentation, my paper will engage Haiti’s archival context and examine the stakes of historical production in and about the country.</t>
   </si>
   <si>
-    <t>[Abstract not in program]</t>
-  </si>
-  <si>
     <t>Richard Cox</t>
   </si>
   <si>
@@ -899,9 +883,6 @@
   </si>
   <si>
     <t>University of Michigan</t>
-  </si>
-  <si>
-    <t>American Philosophical Society</t>
   </si>
   <si>
     <t>University of Texas</t>
@@ -1038,7 +1019,121 @@
 2) It would be a good idea to bring something to write with (this could be a laptop/tablet for note-taking). Encouraged but not required.</t>
   </si>
   <si>
-    <t xml:space="preserve">All AERI attendees are welcome to participate. This workshop may be of particular interest to doctoral students and faculty who may be interested in developing or enhancing a fully online course, or those who may currently be teaching in-person and are looking to supplement their courses with asynchronous elements.
+    <t xml:space="preserve">AERI brings together a diverse group of archival researchers and educators for one week each year with many stimulating and interesting conversations about possible connections across institutional, national, and other boundaries. How does one take advantage of the strong foundation that AERI provides to support collaboration and mentoring opportunities within our community? In this workshop we aim to explore some practical strategies for turning those ideas and points of connection into fully-fledged collaborations that extend beyond the institute itself. Bring along your ideas whether it be for a joint article, conference presentation, grant application, or shared curriculum development and we will help to explore how to make it happen. 
+Part I of this workshop will be a panel featuring Anne Gilliland, Gillian Oliver, Ricky Punzalan, Heather Soyka, and Rebecca Frank giving a brief outline of their recent collaboration experiences - how they came about, what role did AERI play, what worked, what didn't, where to next - followed by audience Q&amp;A.
+Part II of this workshop will be the chance for participants to work in small groups to brainstorm and plan a possible collaborative project. We have a list of possible prompts, including upcoming conferences, relevant journals, grants/funding opportunities, curriculum development opportunities and research infrastructure development projects to help guide this work, as well as hoping that participants will bring their own ideas to the table.
+Participants are encouraged to bring their own laptop/tablet/etc. </t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>[No abstract in program.]</t>
+  </si>
+  <si>
+    <t>P.A.S. Babić</t>
+  </si>
+  <si>
+    <t>University of Technology Sydney; McGill University</t>
+  </si>
+  <si>
+    <t>Adam Kriesberg; Ricardo Punzalan</t>
+  </si>
+  <si>
+    <t>Michigan Technological University; University of California Los Angeles; University of Technology Sydney; University of Wisconsin Milwaukee</t>
+  </si>
+  <si>
+    <t>Soaping History Coping (with) Archives: History, Politics, and Popular Culture</t>
+  </si>
+  <si>
+    <t>Andrea Copeland; Ayoung Yoon</t>
+  </si>
+  <si>
+    <t>Indiana University Indianapolis; Indiana University</t>
+  </si>
+  <si>
+    <t>[No presenter in program.]</t>
+  </si>
+  <si>
+    <t>[No institution in program.]</t>
+  </si>
+  <si>
+    <t>[No presentation title in program.]</t>
+  </si>
+  <si>
+    <t>Elsie Doolan</t>
+  </si>
+  <si>
+    <t>Weaving in New Narratives: Textiles as Records of Conflict</t>
+  </si>
+  <si>
+    <t>https://www.kent.edu/aeri2016/paper-presentation-abstracts. This presentation does not appear in the pdf program located at https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf and https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf.</t>
+  </si>
+  <si>
+    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/plenary-speakers</t>
+  </si>
+  <si>
+    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/paper-presentation-abstracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  </t>
+  </si>
+  <si>
+    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/workshops</t>
+  </si>
+  <si>
+    <t>Bergis Jules; Edward Summers</t>
+  </si>
+  <si>
+    <t>University of Maryland and Wayne State University</t>
+  </si>
+  <si>
+    <t>Vladan Vukliš</t>
+  </si>
+  <si>
+    <t>University of Michigan; Kent State University</t>
+  </si>
+  <si>
+    <t>Eric Ketelaar noted that a common past is what gives continuity, cohesion and coherence to a community, and the records which support a community’s collective memory are a vital part of maintaining links with that common past. My research involves the participation of a community to which I belong, the Auckland University Tramping Club (AUTC), as well as the archival practice and academic communities, to investigate how a community with distributed archives can maintain control of the records of its collective memory, in order to better understand how archival description can support community needs. The AUTC is a club that has a constantly-renewing membership, as people are only at University for a few years, and yet the club culture has been sustained for more than 80 years, modifying over time with societal changes, and yet with a stable core. After collaborative analysis of interviews and discussions, themes have been identified and the Tramping Club community and I have developed a model of the way the community uses records in maintaining its multiple, intersecting collective memories. This poster will illustrate that model.</t>
+  </si>
+  <si>
+    <t>CRADLE Project (Data Management MOOC)</t>
+  </si>
+  <si>
+    <t>University of Maryland; American Philosophical Society</t>
+  </si>
+  <si>
+    <t>Univesity of California Riverside; University of Maryland</t>
+  </si>
+  <si>
+    <t>Risk Perception and Trustworthy Digital Repository Certification</t>
+  </si>
+  <si>
+    <t>Documentation Strategy in the Desert of Post-Socialism: Rethinking Appraisal in Former Yugoslavia</t>
+  </si>
+  <si>
+    <t>[Abstract not in program.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the late twentieth century onwards, a defining feature of the information and library science (ILS) domain has been its concern with information literacy. The resulting body of literature is vast, and there are many examples of implementations of research into practice, as evidenced by the involvement of professional bodies and the development of standards and guidelines. However, consideration of the power of records and recordkeeping in everyday lives is a perspective that is largely missing from information literacy research and practice. This absence of awareness means that existing conceptions of information literacy developed by the ILS community do not adequately reflect issues relating to everyday records and recordkeeping. Contributions to information literacy from the archival science discipline have focused largely on archival or primary source literacy, often in terms of user education (for instance, how to navigate access to archival institutions and collections). Records literacy, addressing the challenges inherent in interacting with everyday records and records systems has not been addressed, other than from a training perspective targeted at specific workplace requirements. As records are influential at all levels of human existence, the consequences of not addressing records literacy, particularly for the least empowered individuals in society (such as refugees), can be profound. Issues of professional identify and culture are likely to have influenced the lack of awareness of the need for records literacy in everyday life, in particular the division of responsibilities for recordkeeping to records managers and archivists. The purpose of this paper is to raise awareness of the need for records literacy and to call  for a research and practice agenda to introduce and embed awareness of records and recordkeeping in information literacy. </t>
+  </si>
+  <si>
+    <t>Australia and Canada have contributed strongly to the discussion and adoption of records continuum thinking and practice.  In 1985 Archivaria published Atherton’s[Field] seminal work From Life Cycle to Continuum--some thoughts on the records management-archives relationship. This was the earliest published effort that espoused and consolidated continuum thinking. Not long afterwards continuum thinking and the Records Continuum Model, developed by Frank Upward, was taken up in and evolved in Australia. The Australian recordkeeping community issued a records management standard based on continuum thinking. Both nations have adopted a records continuum view in developing their national recordkeeping framework, but Bak (2010) notes that there are important differences in the two views of the continuum developed on either side of the Pacific. He contends that the Canadian view, as espoused by Atherton (1985), privileges service or what he later calls utility whereas the Australian view has a tendency to privilege issues of authenticity and evidential value. Canadian archives scholars have a different perspective, and MaNeil (2011) argues that the professional identity of archivists and records management professionals has centered on authenticity and trust. Is Bak accurate in stating that “the difference between Australian and Canadian views of the continuum have been carried over to differences in the recordkeeping cultures of the two nations”? This paper draws on interviews with records managers in both Australian and Canadian federal government agencies to explore this notion that the views of the continuum have affected the recordkeeping cultures of the two nations and to see whether there is indeed an underlying universal professional recordkeeping culture that prevails regardless of national frameworks.</t>
+  </si>
+  <si>
+    <t>This ongoing research is based on a previous inquiry into the state of archival sources for social history of Yugoslav Socialism (1945–1990). An in-depth analysis of archival socialist heritage uncovered systematic issues regarding strategies and practices of appraisal that were designed within the previous system, and then automatically reapplied in a new, post-socialist environment. In the era of state socialism, where almost all spheres of social life--including government, economy, education, politics, non-government associations etc.--were “socially owned” and/or “socially controlled”, archival institutions were entrusted with overlooking the totality of records production. Appraisal of records, based on criteria of formal function and hierarchy, was operationalized through a “life cycle” model, where an essentially negative selection eliminated what was considered valueless. The bulk of material retained as potentially valuable, as it waited for acquisition and processing, was gradually accumulated into an increasing backlog. As no proactive appraisal strategies were yet devised, one can only speculate about possible responses to these challenges, because with the 1990s came unexpected extraordinary conditions. After a decade of political and social turmoil, Socialist Yugoslavia fell apart in a series of violent secession wars. Archival institutions were primarily concerned with surviving and adapting to new conditions, as well as with attempts--too often futile--to save the records that suddenly fell out of place. Two decades after these wars, however, it becomes apparent that the archival profession must also (re)engage in deeper issues. Post-socialist transition and deregulation severely reduced the archival framework. Private (and privatized) enterprises, the political parties, NGOs, the trade unions, and even the Judiciary, now all act independently when it comes to handling and disposition of their own records. Archival profession was reduced to a guardian of state papers, produced by government bodies and remaining public institutions. With the goal of reclaiming lost ground for the archives, envisioned to document the totality of social life, this research explores the possibilities for designing documentation strategies and for appropriation of proactive appraisal practices as well as modern records management systems that would enable these deeply needed changes.</t>
+  </si>
+  <si>
+    <t>Archival practice in the Arab sectors of the Middle East and North Africa (MENA), and the scholarship that seeks to study it, must grapple with the dual challenge of, on the one hand, thinking critically about the transmission of western paradigms, methods and goals while adapting the insights and knowledge of a tradition most often associated with the west; and of combating the orientalist tendency to essentialize the cultures and societies as timeless and monolithic, on the other hand (Mejcher-Atassi &amp; Schwartz 2012, 1). In this context, and against a regional background of increased and diversified collecting practices, heightened contestation over the past, and large-scale material heritage destruction, my research paper interrogates various Lebanese archival sites and initiatives in light of modern Arab history. I begin by exploring the increasing relevance and political province of narratives of (neo)colonial and postcolonial violence in Lebanon and across the Middle East and North Africa (MENA). While making connections between ongoing conflict and the oft-noted archival deficiencies facing the MENA, I outline the necessity, rationale and context of a research agenda that seeks to fill the gaps in our knowledge of archives in Arab settings while critically questioning what archives in Lebanon exhibit, what purposes and audiences they serve, and, most crucially, what narratives they engender. This line of questioning allows me to probe what archives mean in a region where the most pressing need to collect and recover lies not only in the professional and academic fields concerned with preserving and organizing heritage, but perhaps more so in attempts at objectifying and sustaining a presence for those people, places and objects lost, destroyed or erased by past and ongoing violence (see Shabout 2012 for relevant discussion).
+Works Cited:
+Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.). (2012) Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.
+Shabout, Nada. (2012). Collecting modern Iraqi art. In Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.), Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.</t>
+  </si>
+  <si>
+    <t>In 1951, Henrietta Lacks, a black woman, died of cervical cancer at Johns Hopkins Hospital. In what is now a widely discussed case of medical and racial ethics, Lacks’s cells were used, without permission or informed consent, to create an immortal commercial cell line (HeLa cells), the use of which continues in contemporary biomedicine. In 2013, researchers mapped Lacks’s DNA genome and published the code online. Lacks’s family argued that the published genome laid bare their most intimate health information, making it digitally available to the public and denying them the opportunity to craft their own narratives about their bodies, their heritage, their health, and their future selves. Four years after Lacks’s death, Emmett Till, a fourteen-year-old black child, was lynched in Mississippi. Till’s mutilated body was photographed at his funeral in 1955; in the sixty years since, dozens of images of a deceased Emmett Till have been published online, where they will remain in perpetuity. A history of lynching as photographic sport in the United States, viewed alongside the Lacks and Till cases, offers tangible examples of the commodification of black bodies—the use by others of black death for personal entertainment or gain. For Lacks, the HeLa commercial cell line and published genome remain as an indelible record. So, too, for Emmett Till and the hundreds of other lynching victims whose dead bodies remain, forever suspended, in a modern-day digital afterlife. The use of dead black bodies for political, social, financial, or cultural gain continues today. A Google image search for slain teen Trayvon Martin, for example, asks whether one would prefer to see his body in a casket, or on the ground. It follows, therefore, that current research on the commodification of black bodies has begun to focus on digital spaces. Using critical and historical methods, this research asks questions about the line between memorialization and commodification; black bodies as records and as evidence; and the interplay between the permanence of the digital sphere and international human rights concept of the “right to be forgotten."</t>
+  </si>
+  <si>
+    <t>All AERI attendees are welcome to participate. This workshop may be of particular interest to doctoral students and faculty who may be interested in developing or enhancing a fully online course, or those who may currently be teaching in-person and are looking to supplement their courses with asynchronous elements.
 To register for this workshop, please complete this survey: http://goo.gl/forms/m0E9Ia1ibAHW3uVG2
 This workshop includes two primary components:
 1. Scheduled Workshop Session: Includes presentation and group discussion, covering topics like:
@@ -1051,101 +1146,16 @@
 * Please email course syllabus (if you have one) to andrewjlau@ucla.edu for review by July 1, 2016.
 * Workshop facilitator will respond via email to set up meeting time.
 Required Materials: None, though workshop participants are encouraged to bring your own device (laptops and mobile devices) and/or note-taking materials. No special equipment is required.
-Please direct any questions about this workshop to the facilitator Andrew J Lau, PhD (andrewjlau@ucla.edu).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERI brings together a diverse group of archival researchers and educators for one week each year with many stimulating and interesting conversations about possible connections across institutional, national, and other boundaries. How does one take advantage of the strong foundation that AERI provides to support collaboration and mentoring opportunities within our community? In this workshop we aim to explore some practical strategies for turning those ideas and points of connection into fully-fledged collaborations that extend beyond the institute itself. Bring along your ideas whether it be for a joint article, conference presentation, grant application, or shared curriculum development and we will help to explore how to make it happen. 
-Part I of this workshop will be a panel featuring Anne Gilliland, Gillian Oliver, Ricky Punzalan, Heather Soyka, and Rebecca Frank giving a brief outline of their recent collaboration experiences - how they came about, what role did AERI play, what worked, what didn't, where to next - followed by audience Q&amp;A.
-Part II of this workshop will be the chance for participants to work in small groups to brainstorm and plan a possible collaborative project. We have a list of possible prompts, including upcoming conferences, relevant journals, grants/funding opportunities, curriculum development opportunities and research infrastructure development projects to help guide this work, as well as hoping that participants will bring their own ideas to the table.
-Participants are encouraged to bring their own laptop/tablet/etc. </t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>[No abstract in program.]</t>
-  </si>
-  <si>
-    <t>P.A.S. Babić</t>
-  </si>
-  <si>
-    <t>University of Technology Sydney; McGill University</t>
-  </si>
-  <si>
-    <t>Adam Kriesberg; Ricardo Punzalan</t>
-  </si>
-  <si>
-    <t>Michigan Technological University; University of California Los Angeles; University of Technology Sydney; University of Wisconsin Milwaukee</t>
-  </si>
-  <si>
-    <t>Soaping History Coping (with) Archives: History, Politics, and Popular Culture</t>
-  </si>
-  <si>
-    <t>Andrea Copeland; Ayoung Yoon</t>
-  </si>
-  <si>
-    <t>Indiana University Indianapolis; Indiana University</t>
-  </si>
-  <si>
-    <t>[No presenter in program.]</t>
-  </si>
-  <si>
-    <t>[No institution in program.]</t>
-  </si>
-  <si>
-    <t>[No presentation title in program.]</t>
-  </si>
-  <si>
-    <t>Elsie Doolan</t>
-  </si>
-  <si>
-    <t>Weaving in New Narratives: Textiles as Records of Conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 1970s, Chilean women began creating textiles known as arpilleras (from the Spanish word for burlap) as a way of documenting their lives and experiences. Under the Pinochet regime (1973-1990), arpilleras depicting the difficult, often violent, experiences of Chilean women began to gain global recognition. Through an internship with the Tower Museum archives in Derry~Londonderry in Northern Ireland, I worked with a collection of arpilleras that had been donated by Roberta Bacic, a Chilean lecturer currently living in Northern Ireland, who has focused her research on arpilleras. Considered by some to be both museum artifacts and archival records, these textile works challenge classical professional distinctions drawn between the two categories. Situating their dual categorizations within a combined museum and archival setting exposes the ways in which traditional definitions of archival records may not only exclude women's voices, but also fail to consider how gendered activities and expressions might play a role in records’ formation and reception. Arpilleras have been adopted in a variety of countries as a medium through which women are able to express their own personal experiences with conflict autonomously. Thus, there is a greater imperative that archivists work to create a more inclusive archival record. </t>
-  </si>
-  <si>
-    <t>https://www.kent.edu/aeri2016/paper-presentation-abstracts. This presentation does not appear in the pdf program located at https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf and https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf.</t>
-  </si>
-  <si>
-    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/plenary-speakers</t>
-  </si>
-  <si>
-    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/paper-presentation-abstracts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  </t>
-  </si>
-  <si>
-    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf;  https://www.kent.edu/aeri2016/workshops</t>
-  </si>
-  <si>
-    <t>Bergis Jules; Edward Summers</t>
-  </si>
-  <si>
-    <t>University of Maryland and Wayne State University</t>
-  </si>
-  <si>
-    <t>Vladan Vukliš</t>
-  </si>
-  <si>
-    <t>Archival practice in the Arab sectors of the Middle East and North Africa (MENA), and the scholarship that seeks to study it, must grapple with the dual challenge of, on the one hand, thinking critically about the transmission of western paradigms, methods and goals while adapting the insights and knowledge of a tradition most often associated with the west; and of combating the orientalist tendency to essentialize the cultures and societies as timeless and monolithic, on the other hand (Mejcher-Atassi &amp;amp; Schwartz 2012, 1). In this context, and against a regional background of increased and diversified collecting practices, heightened contestation over the past, and large-scale material heritage destruction, my research paper interrogates various Lebanese archival sites and initiatives in light of modern Arab history. I begin by exploring the increasing relevance and political province of narratives of (neo)colonial and postcolonial violence in Lebanon and across the Middle East and North Africa (MENA). While making connections between ongoing conflict and the oft-noted archival deficiencies facing the MENA, I outline the necessity, rationale and context of a research agenda that seeks to fill the gaps in our knowledge of archives in Arab settings while critically questioning what archives in Lebanon exhibit, what purposes and audiences they serve, and, most crucially, what narratives they engender. This line of questioning allows me to probe what archives mean in a region where the most pressing need to collect and recover lies not only in the professional and academic fields concerned with preserving and organizing heritage, but perhaps more so in attempts at objectifying and sustaining a presence for those people, places and objects lost, destroyed or erased by past and ongoing violence (see Shabout 2012 for relevant discussion).
-Works Cited:
-Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.). (2012) Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.
-Shabout, Nada. (2012). Collecting modern Iraqi art. In Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.), Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.</t>
-  </si>
-  <si>
-    <t>University of Michigan; Kent State University</t>
-  </si>
-  <si>
-    <t>Eric Ketelaar noted that a common past is what gives continuity, cohesion and coherence to a community, and the records which support a community’s collective memory are a vital part of maintaining links with that common past. My research involves the participation of a community to which I belong, the Auckland University Tramping Club (AUTC), as well as the archival practice and academic communities, to investigate how a community with distributed archives can maintain control of the records of its collective memory, in order to better understand how archival description can support community needs. The AUTC is a club that has a constantly-renewing membership, as people are only at University for a few years, and yet the club culture has been sustained for more than 80 years, modifying over time with societal changes, and yet with a stable core. After collaborative analysis of interviews and discussions, themes have been identified and the Tramping Club community and I have developed a model of the way the community uses records in maintaining its multiple, intersecting collective memories. This poster will illustrate that model.</t>
-  </si>
-  <si>
-    <t>CRADLE Project (Data Management MOOC)</t>
-  </si>
-  <si>
-    <t>[No institution in program]; University of Maryland</t>
+Please direct any questions about this workshop to the facilitator Andrew J Lau, PhD (andrewjlau@ucla.edu).</t>
+  </si>
+  <si>
+    <t>As 21st century archivists move out of the stacks and into increasingly dynamic and multicultural communities, we confront the issue of how to archive such communities’ events and lived histories. In response to a query from a campus museum to help archive an aerosol art performance/installation, I asked my students to consider how to archive an ephemeral event using one sense beyond audio and visual. As an example, I offered John Waters’ 1981 film Polyester, filmed in “Odorama” with scratch-n-sniff cards distributed at screenings. How do we describe, arrange, and conserve the sensory moment that is lived experience? On a theoretical level, I discussed phenomenology and presented some ideas from Gaston Bachelard’s The Poetics of Space. On a practical level, what’s an archivist to do? Janet Ceja’s work on videographers as digital scribes for local communities in Mexico (2015), Carmen Cowick’s work on street art (2015), and Anabel Quan-Haase and Kim Martin’s study (2013) of translation of actual to virtual provide some exemplars. Much of this work relies upon A/V media as a recording and preservation end in itself. The professional archival pedagogy literature is largely silent on archiving sense experience. Yet thinking outside the (Hollinger) box and digital capture has pedagogical value for rising archivists who will confront heretofore unexpected materials. Collecting and processing with a full complement of perceptual aspects also has profound implications for engaging with disability communities, as well. I propose to discuss the design and execution challenges to an assignment in archiving the ephemeral experience, be it fiesta, graffiti installation, community march, political protest. How do we capture what it feels like to be in the moment and conserve that for future researchers and generations. (What did Woodstock smell like? How do we reproduce the feeling on the ground at the “I Have A Dream Speech”? What is the taste of aerosol in the air when artists are tagging?) I’ll discuss how I framed the assignment, how the students responded, what worked and what didn’t, and propose and invite revisions for next time. This is very much a work in progress. I would welcome the conversation!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 1970s, Chilean women began creating textiles known as arpilleras (from the Spanish word for burlap) as a way of documenting their lives and experiences. Under the Pinochet regime (1973-1990), arpilleras depicting the difficult, often violent, experiences of Chilean women began to gain global recognition. Through an internship with the Tower Museum archives in Derry-Londonderry in Northern Ireland, I worked with a collection of arpilleras that had been donated by Roberta Bacic, a Chilean lecturer currently living in Northern Ireland, who has focused her research on arpilleras. Considered by some to be both museum artifacts and archival records, these textile works challenge classical professional distinctions drawn between the two categories. Situating their dual categorizations within a combined museum and archival setting exposes the ways in which traditional definitions of archival records may not only exclude women's voices, but also fail to consider how gendered activities and expressions might play a role in records’ formation and reception. Arpilleras have been adopted in a variety of countries as a medium through which women are able to express their own personal experiences with conflict autonomously. Thus, there is a greater imperative that archivists work to create a more inclusive archival record. </t>
+  </si>
+  <si>
+    <t>https://du1ux2871uqvu.cloudfront.net/sites/default/files/file/AERI_2016_FinalProgram%20Sheet1.pdf; https://github.com/hsoyka/AERI/blob/master/AERI_2016_Program.pdf</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1168,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1261,7 +1270,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1292,9 +1301,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1670,21 +1676,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="49.296875" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2016001</v>
       </c>
@@ -1721,16 +1727,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -1739,18 +1745,18 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2016002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1762,24 +1768,24 @@
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2016003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1791,24 +1797,24 @@
         <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2016004</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>360</v>
+        <v>342</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1820,24 +1826,24 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2016005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -1849,24 +1855,24 @@
         <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2016006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1878,24 +1884,24 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2016007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -1907,24 +1913,24 @@
         <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2016008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -1933,355 +1939,355 @@
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>353</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2016009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2016010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2016011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2016012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2016013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2016014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2016015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2016016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2016017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2016018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>350</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="156" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="170" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2016019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="171.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="170" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2016020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>11</v>
@@ -2290,1536 +2296,1536 @@
         <v>11</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2016021</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2016022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2016023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>356</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2016024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>290</v>
+        <v>269</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2016025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2016026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2016027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2016028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2016029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="405.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2016030</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2016031</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2016032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2016033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2016034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2016035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2016036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G37" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2016037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>87</v>
+        <v>357</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2016038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2016039</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2016040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2016041</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2016042</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G43" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2016043</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2016044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2016045</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2016046</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2016047</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2016048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2016049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2016050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2016051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2016052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2016053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2016054</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2016055</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>120</v>
+        <v>359</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2016056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2016057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2016058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2016059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2016060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2016061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2016062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2016063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2016064</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2016065</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2016066</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2016067</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2016068</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2016069</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2016070</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2016071</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2016072</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2016073</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>11</v>
@@ -3828,475 +3834,480 @@
         <v>11</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2016074</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2016075</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>171</v>
+      <c r="F76" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2016076</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2016077</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2016078</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2016079</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2016080</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2016081</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2016082</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2016083</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2016084</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2016085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2016086</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2016087</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2016088</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>2016089</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>